--- a/2024/shuffle-architecute/Teste10/content/results/metrics_2_3.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_2_3.xlsx
@@ -488,778 +488,778 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_10</t>
+          <t>model_2_3_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.964121484587402</v>
+        <v>0.9602031377394611</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7514959743624016</v>
+        <v>0.8008313775880921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9846166497738595</v>
+        <v>0.9189366731516005</v>
       </c>
       <c r="E2" t="n">
-        <v>0.433703811869568</v>
+        <v>0.8120750197801697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7181049256228317</v>
+        <v>0.8450610801639125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1505744606256485</v>
+        <v>0.167018935084343</v>
       </c>
       <c r="H2" t="n">
-        <v>1.661747694015503</v>
+        <v>1.331841468811035</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02371019497513771</v>
+        <v>0.1582692414522171</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8905115723609924</v>
+        <v>0.8758437633514404</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4571108520030975</v>
+        <v>0.5170567035675049</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_9</t>
+          <t>model_2_3_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9639570313561849</v>
+        <v>0.960658813741719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.751484255436895</v>
+        <v>0.8008031097112478</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9864800677079215</v>
+        <v>0.9195693260368689</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4331165831574739</v>
+        <v>0.8148654314803936</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7187057604565994</v>
+        <v>0.8471947273440147</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1512646228075027</v>
+        <v>0.1651065498590469</v>
       </c>
       <c r="H3" t="n">
-        <v>1.661825895309448</v>
+        <v>1.332030534744263</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02083812840282917</v>
+        <v>0.1570340394973755</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8914350271224976</v>
+        <v>0.8628388047218323</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4561365842819214</v>
+        <v>0.5099363327026367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_8</t>
+          <t>model_2_3_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9637442013061104</v>
+        <v>0.9611490956074337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7514273274610528</v>
+        <v>0.8007633104087886</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9883549452236348</v>
+        <v>0.9202709785010209</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4326361006862531</v>
+        <v>0.8179368483775976</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7193638272575085</v>
+        <v>0.8495446823255733</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1521578282117844</v>
+        <v>0.1630489379167557</v>
       </c>
       <c r="H4" t="n">
-        <v>1.662206649780273</v>
+        <v>1.33229660987854</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01794840209186077</v>
+        <v>0.1556641310453415</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8921905755996704</v>
+        <v>0.8485241532325745</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4550694823265076</v>
+        <v>0.5020941495895386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_7</t>
+          <t>model_2_3_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9634713834303175</v>
+        <v>0.9616739439863982</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7513088140877685</v>
+        <v>0.8007087884500084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9902056888467948</v>
+        <v>0.9210484345913212</v>
       </c>
       <c r="E5" t="n">
-        <v>0.432317623603132</v>
+        <v>0.8213132562175711</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7200889571152216</v>
+        <v>0.8521298322715298</v>
       </c>
       <c r="G5" t="n">
-        <v>0.153302788734436</v>
+        <v>0.1608462482690811</v>
       </c>
       <c r="H5" t="n">
-        <v>1.662999153137207</v>
+        <v>1.332661151885986</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01509586907923222</v>
+        <v>0.154146209359169</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8926913738250732</v>
+        <v>0.8327880501747131</v>
       </c>
       <c r="K5" t="n">
-        <v>0.453893631696701</v>
+        <v>0.4934670925140381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_6</t>
+          <t>model_2_3_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9631243036154387</v>
+        <v>0.9622326418497043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7511082645294108</v>
+        <v>0.800635489172441</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9919877100264872</v>
+        <v>0.9219105357670573</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4322283375539349</v>
+        <v>0.8250200829102634</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7208925772778094</v>
+        <v>0.8549704846182546</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1547593921422958</v>
+        <v>0.158501535654068</v>
       </c>
       <c r="H6" t="n">
-        <v>1.664340257644653</v>
+        <v>1.333151340484619</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0123492581769824</v>
+        <v>0.1524630337953568</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8928317427635193</v>
+        <v>0.81551194190979</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4525904953479767</v>
+        <v>0.4839873909950256</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_5</t>
+          <t>model_2_3_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9626852969186924</v>
+        <v>0.9628232677249428</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7508005149951114</v>
+        <v>0.8005383692583116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9936444675063414</v>
+        <v>0.9228659286873753</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4324506649422105</v>
+        <v>0.8290841292891181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.721787744703296</v>
+        <v>0.8580878065970242</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1566018313169479</v>
+        <v>0.1560227870941162</v>
       </c>
       <c r="H7" t="n">
-        <v>1.666398048400879</v>
+        <v>1.333800792694092</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009795715101063251</v>
+        <v>0.1505977064371109</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8924821615219116</v>
+        <v>0.7965710759162903</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4511389434337616</v>
+        <v>0.4735843539237976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_4</t>
+          <t>model_2_3_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9621322301527158</v>
+        <v>0.9634422864064434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7503552886802722</v>
+        <v>0.8004111443635983</v>
       </c>
       <c r="D8" t="n">
-        <v>0.995104807873766</v>
+        <v>0.9239247974129056</v>
       </c>
       <c r="E8" t="n">
-        <v>0.433078015155259</v>
+        <v>0.8335321428333005</v>
       </c>
       <c r="F8" t="n">
-        <v>0.722785956152362</v>
+        <v>0.8615035383940255</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1589229255914688</v>
+        <v>0.1534249037504196</v>
       </c>
       <c r="H8" t="n">
-        <v>1.669375419616699</v>
+        <v>1.334651589393616</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007544908206909895</v>
+        <v>0.1485303491353989</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8914956450462341</v>
+        <v>0.7758406400680542</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4495202600955963</v>
+        <v>0.4621854722499847</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_11</t>
+          <t>model_2_3_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9643522741627643</v>
+        <v>0.9640841705937088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7501429916318163</v>
+        <v>0.8002459629200546</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9598195744928205</v>
+        <v>0.9250978616159266</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4447717261959876</v>
+        <v>0.8383911050214531</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7116867223340904</v>
+        <v>0.8652396319922007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1496058851480484</v>
+        <v>0.1507310420274734</v>
       </c>
       <c r="H9" t="n">
-        <v>1.67079496383667</v>
+        <v>1.335756182670593</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06192966550588608</v>
+        <v>0.1462400406599045</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8731070756912231</v>
+        <v>0.7531949877738953</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4675183892250061</v>
+        <v>0.4497175216674805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_12</t>
+          <t>model_2_3_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9647408943497634</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8000330568242007</v>
       </c>
       <c r="D10" t="n">
-        <v>0.959819114734888</v>
+        <v>0.9263977521955937</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.843688020512355</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.8693186579824501</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1479749232530594</v>
       </c>
       <c r="H10" t="n">
-        <v>1.670795202255249</v>
+        <v>1.337179899215698</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.1437021195888519</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.7285081148147583</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.4361051321029663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_22</t>
+          <t>model_2_3_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9654009343730807</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7997602934634077</v>
       </c>
       <c r="D11" t="n">
-        <v>0.959819114734888</v>
+        <v>0.9278383973513039</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.849447801358012</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.8737620808354424</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1452048718929291</v>
       </c>
       <c r="H11" t="n">
-        <v>1.670795202255249</v>
+        <v>1.339003801345825</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.1408893764019012</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.7016640305519104</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.4212766885757446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_21</t>
+          <t>model_2_3_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9660485381782619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7994125486070189</v>
       </c>
       <c r="D12" t="n">
-        <v>0.959819114734888</v>
+        <v>0.929435215696063</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.8556933243545103</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.8785903509507766</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.142487034201622</v>
       </c>
       <c r="H12" t="n">
-        <v>1.670795202255249</v>
+        <v>1.341329216957092</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.1377717256546021</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.6725561618804932</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.40516397356987</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_20</t>
+          <t>model_2_3_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9666622882961082</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.798971057503737</v>
       </c>
       <c r="D13" t="n">
-        <v>0.959819114734888</v>
+        <v>0.9312056023424148</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.8624425832823605</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.883821175923207</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1399112343788147</v>
       </c>
       <c r="H13" t="n">
-        <v>1.670795202255249</v>
+        <v>1.344281554222107</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.1343152076005936</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.6411005854606628</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.3877078592777252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_19</t>
+          <t>model_2_3_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9672139578663675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7984124818784873</v>
       </c>
       <c r="D14" t="n">
-        <v>0.959819114734888</v>
+        <v>0.9331699588736352</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.8697079671250165</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.8894691155656009</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1375960111618042</v>
       </c>
       <c r="H14" t="n">
-        <v>1.670795202255249</v>
+        <v>1.348016738891602</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.1304799616336823</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.6072394847869873</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.3688597679138184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_18</t>
+          <t>model_2_3_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9676663357050864</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7977078149114315</v>
       </c>
       <c r="D15" t="n">
-        <v>0.959819114734888</v>
+        <v>0.9353517809571661</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.8774924557289454</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.8955431817340829</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1356974691152573</v>
       </c>
       <c r="H15" t="n">
-        <v>1.670795202255249</v>
+        <v>1.352728724479675</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.1262201368808746</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.5709590911865234</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.3485895991325378</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_17</t>
+          <t>model_2_3_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9679710921861249</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7968209935793945</v>
       </c>
       <c r="D16" t="n">
-        <v>0.959819114734888</v>
+        <v>0.9377786676096368</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.8857869375021837</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.9020450289466049</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1344184726476669</v>
       </c>
       <c r="H16" t="n">
-        <v>1.670795202255249</v>
+        <v>1.358659029006958</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.1214818432927132</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.5323017835617065</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.3268918395042419</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_16</t>
+          <t>model_2_3_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9680657223831752</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7957070346237332</v>
       </c>
       <c r="D17" t="n">
-        <v>0.959819114734888</v>
+        <v>0.940483709986716</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.8945644956106925</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.9089656097673039</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1340213268995285</v>
       </c>
       <c r="H17" t="n">
-        <v>1.670795202255249</v>
+        <v>1.366108059883118</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.1162004843354225</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.4913930594921112</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.3037967383861542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_24</t>
+          <t>model_2_3_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9678701272281675</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7943099014516658</v>
       </c>
       <c r="D18" t="n">
-        <v>0.959819114734888</v>
+        <v>0.9435079930776246</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.9037757820424809</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.9162824047345804</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1348422020673752</v>
       </c>
       <c r="H18" t="n">
-        <v>1.670795202255249</v>
+        <v>1.375450611114502</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.110295832157135</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.4484629034996033</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.2793793976306915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_14</t>
+          <t>model_2_3_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9672815574802955</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7925594068809421</v>
       </c>
       <c r="D19" t="n">
-        <v>0.959819114734888</v>
+        <v>0.9469016101068716</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.9133390134804865</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.9239530508756372</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1373122930526733</v>
       </c>
       <c r="H19" t="n">
-        <v>1.670795202255249</v>
+        <v>1.387156248092651</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.1036700829863548</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.403892457485199</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.2537811696529388</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_13</t>
+          <t>model_2_3_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9661689544348822</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7903673268087902</v>
       </c>
       <c r="D20" t="n">
-        <v>0.959819114734888</v>
+        <v>0.9507277662094067</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.9231297063989249</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.9319089510931011</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1419816613197327</v>
       </c>
       <c r="H20" t="n">
-        <v>1.670795202255249</v>
+        <v>1.401814699172974</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.09619983285665512</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.3582619428634644</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.227231040596962</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_23</t>
+          <t>model_2_3_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9643647151336254</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7876218273379394</v>
       </c>
       <c r="D21" t="n">
-        <v>0.959819114734888</v>
+        <v>0.9550646265699897</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.9329636618442158</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.9400445740337873</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1495536714792252</v>
       </c>
       <c r="H21" t="n">
-        <v>1.670795202255249</v>
+        <v>1.42017388343811</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.08773248642683029</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.3124297559261322</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.2000811249017715</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_15</t>
+          <t>model_2_3_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9616537510081106</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7841790285043492</v>
       </c>
       <c r="D22" t="n">
-        <v>0.959819114734888</v>
+        <v>0.9600044907930489</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4447715390268516</v>
+        <v>0.9425721841209437</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7116864550075805</v>
+        <v>0.9481991330532364</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1609310209751129</v>
       </c>
       <c r="H22" t="n">
-        <v>1.670795202255249</v>
+        <v>1.443195819854736</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06193037703633308</v>
+        <v>0.07808782160282135</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8731073141098022</v>
+        <v>0.2676482796669006</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4675188064575195</v>
+        <v>0.172868013381958</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9614374469407377</v>
+        <v>0.9577578628789873</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7497366824365859</v>
+        <v>0.7798498988222107</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9962775917850615</v>
+        <v>0.9656424422555411</v>
       </c>
       <c r="E23" t="n">
-        <v>0.434216655350925</v>
+        <v>0.9515632361291856</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7238954034642322</v>
+        <v>0.9561267259131481</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1618387848138809</v>
+        <v>0.1772812008857727</v>
       </c>
       <c r="H23" t="n">
-        <v>1.673511981964111</v>
+        <v>1.472144842147827</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005737308412790298</v>
+        <v>0.06708020716905594</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8897051215171814</v>
+        <v>0.2257445305585861</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4477212131023407</v>
+        <v>0.1464123427867889</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.960565680556187</v>
+        <v>0.952312117238943</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7489026768655112</v>
+        <v>0.7743785864430016</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9970452756494198</v>
+        <v>0.9720376620739071</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4359733714229912</v>
+        <v>0.9593552915238712</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7251120563725232</v>
+        <v>0.963438589485641</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1654973924160004</v>
+        <v>0.2001358270645142</v>
       </c>
       <c r="H24" t="n">
-        <v>1.679089069366455</v>
+        <v>1.508731484413147</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004554085433483124</v>
+        <v>0.05459408462047577</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8869426250457764</v>
+        <v>0.1894288659095764</v>
       </c>
       <c r="K24" t="n">
-        <v>0.44574835896492</v>
+        <v>0.1220114454627037</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9594721075047717</v>
+        <v>0.9448333073754273</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7478037250474301</v>
+        <v>0.767411401355594</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9972560207865159</v>
+        <v>0.9791185888740714</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4384469067760705</v>
+        <v>0.965078281434446</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7264115666586615</v>
+        <v>0.9695062220223819</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1700868755578995</v>
+        <v>0.2315228134393692</v>
       </c>
       <c r="H25" t="n">
-        <v>1.686437606811523</v>
+        <v>1.555320978164673</v>
       </c>
       <c r="I25" t="n">
-        <v>0.004229266196489334</v>
+        <v>0.04076917842030525</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8830529451370239</v>
+        <v>0.1627562791109085</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4436410963535309</v>
+        <v>0.1017627492547035</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9580991835311136</v>
+        <v>0.9346882931147085</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7463798915996613</v>
+        <v>0.758473896777037</v>
       </c>
       <c r="D26" t="n">
-        <v>0.996717403659754</v>
+        <v>0.9865069736744788</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4416982690586527</v>
+        <v>0.9674738501204814</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7277321058240633</v>
+        <v>0.9733402998855196</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1758487671613693</v>
+        <v>0.2740992307662964</v>
       </c>
       <c r="H26" t="n">
-        <v>1.695958852767944</v>
+        <v>1.615086078643799</v>
       </c>
       <c r="I26" t="n">
-        <v>0.005059431307017803</v>
+        <v>0.02634398452937603</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8779401183128357</v>
+        <v>0.1515914797782898</v>
       </c>
       <c r="K26" t="n">
-        <v>0.441499799489975</v>
+        <v>0.08896780759096146</v>
       </c>
     </row>
   </sheetData>
